--- a/BC_ExampleReport/(以这个为参考，其余为辅)SAMPLE FOR ACR 25112016.  DAILY REPORTSAMPLE OF THE TV STATION NAMED RTCE.xlsx
+++ b/BC_ExampleReport/(以这个为参考，其余为辅)SAMPLE FOR ACR 25112016.  DAILY REPORTSAMPLE OF THE TV STATION NAMED RTCE.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/owlwang/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/owlwang/Desktop/csv_convertor/BC_ExampleReport/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="7280" yWindow="980" windowWidth="16820" windowHeight="17540" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="7280" yWindow="460" windowWidth="16820" windowHeight="17540" firstSheet="3" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="20160714042409 RTCEdu 13" sheetId="1" r:id="rId1"/>
@@ -310,7 +310,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2939" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2939" uniqueCount="82">
   <si>
     <t>Filename</t>
   </si>
@@ -553,6 +553,10 @@
   </si>
   <si>
     <t>VODACOM</t>
+    <phoneticPr fontId="35" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Time spent per channel  </t>
     <phoneticPr fontId="35" type="noConversion"/>
   </si>
 </sst>
@@ -4761,7 +4765,7 @@
   </sheetPr>
   <dimension ref="A1:O117"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
@@ -7465,7 +7469,7 @@
   </sheetPr>
   <dimension ref="A1:P119"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A59" workbookViewId="0">
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
@@ -12884,7 +12888,7 @@
   </sheetPr>
   <dimension ref="A1:N117"/>
   <sheetViews>
-    <sheetView topLeftCell="A45" workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
@@ -15235,8 +15239,8 @@
   </sheetPr>
   <dimension ref="A3:H23"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -15273,7 +15277,7 @@
         <v>59</v>
       </c>
       <c r="F4" s="74" t="s">
-        <v>60</v>
+        <v>81</v>
       </c>
       <c r="G4" s="74" t="s">
         <v>61</v>
